--- a/image analysis examples/DRGNFM1/res.xlsx
+++ b/image analysis examples/DRGNFM1/res.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
   <si>
     <t>dendrite id</t>
   </si>
@@ -46,202 +46,253 @@
     <t>distance to parallel [μm]</t>
   </si>
   <si>
-    <t>(x: 0, y: 161)</t>
-  </si>
-  <si>
-    <t>(x: 79, y: 202)</t>
-  </si>
-  <si>
-    <t>8 , 2 , 6 , 7</t>
-  </si>
-  <si>
-    <t>26.64 , 12.49 , 10.72 , 27.0</t>
-  </si>
-  <si>
-    <t>(x: 0, y: 78)</t>
-  </si>
-  <si>
-    <t>(x: 56, y: 105)</t>
-  </si>
-  <si>
-    <t>8 , 1 , 6 , 7</t>
-  </si>
-  <si>
-    <t>19.12 , 12.49 , 22.39 , 17.19</t>
-  </si>
-  <si>
-    <t>(x: 65, y: 96)</t>
-  </si>
-  <si>
-    <t>(x: 160, y: 70)</t>
-  </si>
-  <si>
-    <t>(x: 80, y: 198)</t>
-  </si>
-  <si>
-    <t>(x: 181, y: 218)</t>
-  </si>
-  <si>
-    <t>(x: 127, y: 172)</t>
-  </si>
-  <si>
-    <t>(x: 203, y: 124)</t>
-  </si>
-  <si>
-    <t>(x: 143, y: 207)</t>
-  </si>
-  <si>
-    <t>(x: 214, y: 255)</t>
-  </si>
-  <si>
-    <t>2 , 1 , 7</t>
-  </si>
-  <si>
-    <t>22.39 , 10.72 , 21.68</t>
-  </si>
-  <si>
-    <t>(x: 143, y: 50)</t>
-  </si>
-  <si>
-    <t>(x: 252, y: 124)</t>
-  </si>
-  <si>
-    <t>2 , 1 , 6</t>
-  </si>
-  <si>
-    <t>17.19 , 27.0 , 21.68</t>
-  </si>
-  <si>
-    <t>(x: 164, y: 67)</t>
-  </si>
-  <si>
-    <t>(x: 255, y: 104)</t>
-  </si>
-  <si>
-    <t>2 , 1</t>
-  </si>
-  <si>
-    <t>19.12 , 26.64</t>
-  </si>
-  <si>
-    <t>(x: 198, y: 0)</t>
-  </si>
-  <si>
-    <t>(x: 185, y: 142)</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>14.77</t>
+    <t>(x: 3, y: 159)</t>
+  </si>
+  <si>
+    <t>(x: 59, y: 210)</t>
+  </si>
+  <si>
+    <t>6 , 14</t>
+  </si>
+  <si>
+    <t>15.35 , 30.94</t>
+  </si>
+  <si>
+    <t>(x: 8, y: 240)</t>
+  </si>
+  <si>
+    <t>(x: 79, y: 199)</t>
+  </si>
+  <si>
+    <t>8 , 9</t>
+  </si>
+  <si>
+    <t>12.46 , 9.45</t>
+  </si>
+  <si>
+    <t>(x: 12, y: 114)</t>
+  </si>
+  <si>
+    <t>(x: 67, y: 103)</t>
+  </si>
+  <si>
+    <t>(x: 13, y: 88)</t>
+  </si>
+  <si>
+    <t>(x: 125, y: 127)</t>
+  </si>
+  <si>
+    <t>15 , 12</t>
+  </si>
+  <si>
+    <t>11.62 , 12.14</t>
+  </si>
+  <si>
+    <t>(x: 65, y: 98)</t>
+  </si>
+  <si>
+    <t>(x: 149, y: 157)</t>
+  </si>
+  <si>
+    <t>10 , 6</t>
+  </si>
+  <si>
+    <t>8.85 , 0.0</t>
+  </si>
+  <si>
+    <t>(x: 67, y: 93)</t>
+  </si>
+  <si>
+    <t>(x: 143, y: 156)</t>
+  </si>
+  <si>
+    <t>5 , 10 , 1</t>
+  </si>
+  <si>
+    <t>0.0 , 9.07 , 15.35</t>
+  </si>
+  <si>
+    <t>(x: 98, y: 199)</t>
+  </si>
+  <si>
+    <t>(x: 159, y: 214)</t>
+  </si>
+  <si>
+    <t>(x: 102, y: 128)</t>
+  </si>
+  <si>
+    <t>(x: 187, y: 83)</t>
+  </si>
+  <si>
+    <t>2 , 9</t>
+  </si>
+  <si>
+    <t>12.46 , 8.0</t>
+  </si>
+  <si>
+    <t>(x: 127, y: 169)</t>
+  </si>
+  <si>
+    <t>(x: 184, y: 139)</t>
+  </si>
+  <si>
+    <t>2 , 8</t>
+  </si>
+  <si>
+    <t>9.45 , 8.0</t>
+  </si>
+  <si>
+    <t>(x: 149, y: 210)</t>
+  </si>
+  <si>
+    <t>(x: 208, y: 253)</t>
+  </si>
+  <si>
+    <t>5 , 6</t>
+  </si>
+  <si>
+    <t>8.85 , 9.07</t>
+  </si>
+  <si>
+    <t>(x: 149, y: 82)</t>
+  </si>
+  <si>
+    <t>(x: 232, y: 84)</t>
+  </si>
+  <si>
+    <t>(x: 163, y: 65)</t>
+  </si>
+  <si>
+    <t>(x: 250, y: 103)</t>
+  </si>
+  <si>
+    <t>4 , 15</t>
+  </si>
+  <si>
+    <t>12.14 , 10.57</t>
+  </si>
+  <si>
+    <t>(x: 180, y: 82)</t>
+  </si>
+  <si>
+    <t>(x: 251, y: 123)</t>
+  </si>
+  <si>
+    <t>(x: 185, y: 74)</t>
+  </si>
+  <si>
+    <t>(x: 235, y: 124)</t>
+  </si>
+  <si>
+    <t>1 , 20</t>
+  </si>
+  <si>
+    <t>30.94 , 14.75</t>
+  </si>
+  <si>
+    <t>(x: 191, y: 149)</t>
+  </si>
+  <si>
+    <t>(x: 252, y: 171)</t>
+  </si>
+  <si>
+    <t>4 , 12</t>
+  </si>
+  <si>
+    <t>11.62 , 10.57</t>
+  </si>
+  <si>
+    <t>(x: 199, y: 1)</t>
+  </si>
+  <si>
+    <t>(x: 201, y: 55)</t>
   </si>
   <si>
     <t>(x: 91, y: 33)</t>
   </si>
   <si>
-    <t>(x: 167, y: 149)</t>
+    <t>(x: 171, y: 153)</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>3.61</t>
   </si>
   <si>
     <t>(x: 80, y: 33)</t>
   </si>
   <si>
-    <t>(x: 105, y: 101)</t>
+    <t>(x: 106, y: 100)</t>
+  </si>
+  <si>
+    <t>(x: 185, y: 0)</t>
+  </si>
+  <si>
+    <t>(x: 160, y: 55)</t>
+  </si>
+  <si>
+    <t>22 , 24</t>
+  </si>
+  <si>
+    <t>10.28 , 14.87</t>
+  </si>
+  <si>
+    <t>(x: 90, y: 101)</t>
+  </si>
+  <si>
+    <t>(x: 143, y: 159)</t>
   </si>
   <si>
     <t>14</t>
   </si>
   <si>
-    <t>7.01</t>
-  </si>
-  <si>
-    <t>(x: 94, y: 35)</t>
-  </si>
-  <si>
-    <t>(x: 99, y: 111)</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>(x: 187, y: 0)</t>
-  </si>
-  <si>
-    <t>(x: 160, y: 56)</t>
-  </si>
-  <si>
-    <t>16 , 17 , 15 , 18</t>
-  </si>
-  <si>
-    <t>13.75 , 14.89 , 3.9 , 25.23</t>
-  </si>
-  <si>
-    <t>(x: 60, y: 102)</t>
-  </si>
-  <si>
-    <t>(x: 90, y: 175)</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>(x: 156, y: 79)</t>
-  </si>
-  <si>
-    <t>(x: 118, y: 135)</t>
-  </si>
-  <si>
-    <t>13 , 17 , 18 , 19</t>
-  </si>
-  <si>
-    <t>3.9 , 1.25 , 10.33 , 5.58</t>
-  </si>
-  <si>
-    <t>(x: 236, y: 88)</t>
-  </si>
-  <si>
-    <t>(x: 200, y: 187)</t>
-  </si>
-  <si>
-    <t>13 , 17</t>
-  </si>
-  <si>
-    <t>13.75 , 14.57</t>
-  </si>
-  <si>
-    <t>(x: 125, y: 138)</t>
-  </si>
-  <si>
-    <t>(x: 92, y: 203)</t>
-  </si>
-  <si>
-    <t>16 , 13 , 15 , 18</t>
-  </si>
-  <si>
-    <t>14.57 , 14.89 , 1.25 , 2.63</t>
-  </si>
-  <si>
-    <t>(x: 83, y: 186)</t>
-  </si>
-  <si>
-    <t>(x: 46, y: 239)</t>
-  </si>
-  <si>
-    <t>13 , 17 , 15 , 19</t>
-  </si>
-  <si>
-    <t>25.23 , 2.63 , 10.33 , 4.12</t>
-  </si>
-  <si>
-    <t>(x: 144, y: 156)</t>
-  </si>
-  <si>
-    <t>(x: 74, y: 242)</t>
-  </si>
-  <si>
-    <t>15 , 18</t>
-  </si>
-  <si>
-    <t>5.58 , 4.12</t>
+    <t>14.75</t>
+  </si>
+  <si>
+    <t>(x: 203, y: 10)</t>
+  </si>
+  <si>
+    <t>(x: 188, y: 131)</t>
+  </si>
+  <si>
+    <t>(x: 219, y: 74)</t>
+  </si>
+  <si>
+    <t>(x: 196, y: 134)</t>
+  </si>
+  <si>
+    <t>24 , 19</t>
+  </si>
+  <si>
+    <t>12.2 , 10.28</t>
+  </si>
+  <si>
+    <t>(x: 183, y: 171)</t>
+  </si>
+  <si>
+    <t>(x: 229, y: 232)</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>(x: 123, y: 136)</t>
+  </si>
+  <si>
+    <t>(x: 94, y: 203)</t>
+  </si>
+  <si>
+    <t>22 , 19</t>
+  </si>
+  <si>
+    <t>12.2 , 14.87</t>
+  </si>
+  <si>
+    <t>(x: 147, y: 156)</t>
+  </si>
+  <si>
+    <t>(x: 87, y: 229)</t>
   </si>
 </sst>
 </file>
@@ -573,7 +624,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -616,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>14.86</v>
+        <v>12.65</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -625,16 +676,16 @@
         <v>11</v>
       </c>
       <c r="E2">
-        <v>27.43</v>
+        <v>42.32</v>
       </c>
       <c r="F2">
-        <v>17.96</v>
+        <v>37.32</v>
       </c>
       <c r="G2">
-        <v>36.9</v>
+        <v>47.32</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I2" t="s">
         <v>12</v>
@@ -648,7 +699,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>10.38</v>
+        <v>13.69</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
@@ -657,16 +708,16 @@
         <v>15</v>
       </c>
       <c r="E3">
-        <v>25.74</v>
+        <v>150</v>
       </c>
       <c r="F3">
-        <v>16.27</v>
+        <v>145</v>
       </c>
       <c r="G3">
-        <v>35.21</v>
+        <v>155</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
@@ -680,7 +731,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>16.45</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="C4" t="s">
         <v>18</v>
@@ -689,13 +740,13 @@
         <v>19</v>
       </c>
       <c r="E4">
-        <v>164.69</v>
+        <v>168.69</v>
       </c>
       <c r="F4">
-        <v>155.22</v>
+        <v>163.69</v>
       </c>
       <c r="G4">
-        <v>174.16</v>
+        <v>173.69</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -706,7 +757,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>17.19</v>
+        <v>19.81</v>
       </c>
       <c r="C5" t="s">
         <v>20</v>
@@ -715,16 +766,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>11.2</v>
+        <v>19.2</v>
       </c>
       <c r="F5">
-        <v>1.73</v>
+        <v>14.2</v>
       </c>
       <c r="G5">
-        <v>20.67</v>
+        <v>24.2</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -732,25 +789,31 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>15.01</v>
+        <v>17.14</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E6">
-        <v>147.72</v>
+        <v>35.08</v>
       </c>
       <c r="F6">
-        <v>138.25</v>
+        <v>30.08</v>
       </c>
       <c r="G6">
-        <v>157.19</v>
+        <v>40.08</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -758,31 +821,31 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>14.31</v>
+        <v>16.49</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E7">
-        <v>34.06</v>
+        <v>39.66</v>
       </c>
       <c r="F7">
-        <v>24.59</v>
+        <v>34.66</v>
       </c>
       <c r="G7">
-        <v>43.53</v>
+        <v>44.66</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="J7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -790,31 +853,25 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>22</v>
+        <v>10.49</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E8">
-        <v>34.17</v>
+        <v>13.82</v>
       </c>
       <c r="F8">
-        <v>24.7</v>
+        <v>8.82</v>
       </c>
       <c r="G8">
-        <v>43.64</v>
+        <v>18.82</v>
       </c>
       <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -822,31 +879,31 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>16.41</v>
+        <v>16.06</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E9">
-        <v>22.13</v>
+        <v>152.1</v>
       </c>
       <c r="F9">
-        <v>12.66</v>
+        <v>147.1</v>
       </c>
       <c r="G9">
-        <v>31.6</v>
+        <v>157.1</v>
       </c>
       <c r="H9">
         <v>2</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -854,31 +911,31 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>23.81</v>
+        <v>10.76</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E10">
-        <v>95.23</v>
+        <v>152.24</v>
       </c>
       <c r="F10">
-        <v>85.76000000000001</v>
+        <v>147.24</v>
       </c>
       <c r="G10">
-        <v>104.7</v>
+        <v>157.24</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -886,25 +943,31 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>23.16</v>
+        <v>12.19</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E11">
-        <v>56.77</v>
+        <v>36.09</v>
       </c>
       <c r="F11">
-        <v>47.3</v>
+        <v>31.09</v>
       </c>
       <c r="G11">
-        <v>66.23999999999999</v>
+        <v>41.09</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -912,31 +975,25 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>12.1</v>
+        <v>13.87</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E12">
-        <v>69.81</v>
+        <v>1.38</v>
       </c>
       <c r="F12">
-        <v>60.34</v>
+        <v>-3.62</v>
       </c>
       <c r="G12">
-        <v>79.28</v>
+        <v>6.38</v>
       </c>
       <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12" t="s">
-        <v>44</v>
-      </c>
-      <c r="J12" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -944,31 +1001,31 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>12.72</v>
+        <v>15.85</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E13">
-        <v>86.23999999999999</v>
+        <v>23.59</v>
       </c>
       <c r="F13">
-        <v>76.77</v>
+        <v>18.59</v>
       </c>
       <c r="G13">
-        <v>95.70999999999999</v>
+        <v>28.59</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J13" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -976,31 +1033,25 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>10.38</v>
+        <v>13.69</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E14">
-        <v>115.74</v>
+        <v>30</v>
       </c>
       <c r="F14">
-        <v>106.27</v>
+        <v>25</v>
       </c>
       <c r="G14">
-        <v>125.21</v>
+        <v>35</v>
       </c>
       <c r="H14">
-        <v>4</v>
-      </c>
-      <c r="I14" t="s">
-        <v>51</v>
-      </c>
-      <c r="J14" t="s">
-        <v>52</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1008,31 +1059,31 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>13.18</v>
+        <v>11.81</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E15">
-        <v>67.66</v>
+        <v>45</v>
       </c>
       <c r="F15">
-        <v>58.19</v>
+        <v>40</v>
       </c>
       <c r="G15">
-        <v>77.13</v>
+        <v>50</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="J15" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1040,31 +1091,31 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>11.3</v>
+        <v>10.83</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E16">
-        <v>124.16</v>
+        <v>19.83</v>
       </c>
       <c r="F16">
-        <v>114.69</v>
+        <v>14.83</v>
       </c>
       <c r="G16">
-        <v>133.63</v>
+        <v>24.83</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1072,31 +1123,25 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>17.59</v>
+        <v>9.02</v>
       </c>
       <c r="C17" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E17">
-        <v>109.98</v>
+        <v>87.88</v>
       </c>
       <c r="F17">
-        <v>100.51</v>
+        <v>82.88</v>
       </c>
       <c r="G17">
-        <v>119.45</v>
+        <v>92.88</v>
       </c>
       <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17" t="s">
-        <v>62</v>
-      </c>
-      <c r="J17" t="s">
-        <v>63</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1104,7 +1149,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>12.17</v>
+        <v>24.09</v>
       </c>
       <c r="C18" t="s">
         <v>64</v>
@@ -1113,16 +1158,16 @@
         <v>65</v>
       </c>
       <c r="E18">
-        <v>116.92</v>
+        <v>56.31</v>
       </c>
       <c r="F18">
-        <v>107.45</v>
+        <v>51.31</v>
       </c>
       <c r="G18">
-        <v>126.39</v>
+        <v>61.31</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I18" t="s">
         <v>66</v>
@@ -1136,7 +1181,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>10.79</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
@@ -1145,22 +1190,16 @@
         <v>69</v>
       </c>
       <c r="E19">
-        <v>124.92</v>
+        <v>68.79000000000001</v>
       </c>
       <c r="F19">
-        <v>115.45</v>
+        <v>63.79</v>
       </c>
       <c r="G19">
-        <v>134.39</v>
+        <v>73.79000000000001</v>
       </c>
       <c r="H19">
-        <v>4</v>
-      </c>
-      <c r="I19" t="s">
-        <v>70</v>
-      </c>
-      <c r="J19" t="s">
-        <v>71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1168,31 +1207,211 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>18.52</v>
+        <v>10.09</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E20">
-        <v>129.14</v>
+        <v>114.44</v>
       </c>
       <c r="F20">
-        <v>119.67</v>
+        <v>109.44</v>
       </c>
       <c r="G20">
-        <v>138.61</v>
+        <v>119.44</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20" t="s">
+        <v>72</v>
+      </c>
+      <c r="J20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>13.12</v>
+      </c>
+      <c r="C21" t="s">
         <v>74</v>
       </c>
-      <c r="J20" t="s">
+      <c r="D21" t="s">
         <v>75</v>
+      </c>
+      <c r="E21">
+        <v>47.58</v>
+      </c>
+      <c r="F21">
+        <v>42.58</v>
+      </c>
+      <c r="G21">
+        <v>52.58</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>20.36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22">
+        <v>97.06999999999999</v>
+      </c>
+      <c r="F22">
+        <v>92.06999999999999</v>
+      </c>
+      <c r="G22">
+        <v>102.07</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>10.73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23">
+        <v>110.97</v>
+      </c>
+      <c r="F23">
+        <v>105.97</v>
+      </c>
+      <c r="G23">
+        <v>115.97</v>
+      </c>
+      <c r="H23">
+        <v>2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>12.76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" t="s">
+        <v>85</v>
+      </c>
+      <c r="E24">
+        <v>52.98</v>
+      </c>
+      <c r="F24">
+        <v>47.98</v>
+      </c>
+      <c r="G24">
+        <v>57.98</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24" t="s">
+        <v>86</v>
+      </c>
+      <c r="J24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>12.19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25">
+        <v>113.4</v>
+      </c>
+      <c r="F25">
+        <v>108.4</v>
+      </c>
+      <c r="G25">
+        <v>118.4</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25" t="s">
+        <v>89</v>
+      </c>
+      <c r="J25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>15.78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E26">
+        <v>129.42</v>
+      </c>
+      <c r="F26">
+        <v>124.42</v>
+      </c>
+      <c r="G26">
+        <v>134.42</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
